--- a/biology/Zoologie/Cazierius_gundlachii/Cazierius_gundlachii.xlsx
+++ b/biology/Zoologie/Cazierius_gundlachii/Cazierius_gundlachii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cazierius gundlachii est une espèce de scorpions de la famille des Diplocentridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba[1]. Elle se rencontre dans les provinces de Guantánamo, de Santiago de Cuba et de Granma[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle se rencontre dans les provinces de Guantánamo, de Santiago de Cuba et de Granma.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Francke en 1978 mesure 28,20 mm et la femelle 33,15 mm[3]
-Les mâles mesurent de 24,41 à 36,80 mm et les femelles de 25,70 à 41,93 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Francke en 1978 mesure 28,20 mm et la femelle 33,15 mm
+Les mâles mesurent de 24,41 à 36,80 mm et les femelles de 25,70 à 41,93 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Diplocentrus gundlachii par Karsch en 1880. Elle est placée dans le genre Cazierius par Francke en 1978[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Diplocentrus gundlachii par Karsch en 1880. Elle est placée dans le genre Cazierius par Francke en 1978.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Juan Gundlach[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Juan Gundlach.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Karsch, 1880 : Arachnologische Blätter. X. Scorpionologische fragmente. Zeitschrift für die gesammten Naturwissenschaften, Halle, vol. 53, p. 404-409.</t>
         </is>
